--- a/CASUAL/LA CITY MARKET/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
+++ b/CASUAL/LA CITY MARKET/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="145">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1407,7 +1407,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1450,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1514,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1640,7 @@
         <xdr:cNvPr id="6" name="Arrow: Left-Right 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,7 +1703,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1801,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1860,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,7 +1925,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1968,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2043,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2229,7 @@
         <xdr:cNvPr id="13" name="Oval 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2295,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2353,7 @@
         <xdr:cNvPr id="15" name="Oval 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2419,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2475,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2550,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2593,7 @@
         <xdr:cNvPr id="19" name="Oval 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,7 +2659,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2715,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2832,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K279" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K280" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3209,12 +3209,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K279"/>
+  <dimension ref="A2:K280"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3585" topLeftCell="A81" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,7 +3373,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>21.135999999999996</v>
+        <v>23.635999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3383,7 +3383,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>89</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5213,13 +5213,15 @@
         <v>45260</v>
       </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="40"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="40"/>
       <c r="I96" s="9"/>
@@ -5230,33 +5232,38 @@
       <c r="A97" s="41">
         <v>45291</v>
       </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="40"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="40"/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H97" s="40">
+        <v>1</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="48">
+        <v>45283</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="41">
-        <v>45322</v>
-      </c>
-      <c r="B98" s="20"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="40"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G98" s="13"/>
       <c r="H98" s="40"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
@@ -5264,7 +5271,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5278,11 +5285,11 @@
       <c r="H99" s="40"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="48"/>
+      <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5300,7 +5307,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5314,11 +5321,11 @@
       <c r="H101" s="40"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="48"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5336,7 +5343,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5350,11 +5357,11 @@
       <c r="H103" s="40"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="48"/>
+      <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5368,11 +5375,11 @@
       <c r="H104" s="40"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="48"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5390,7 +5397,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5408,7 +5415,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5426,7 +5433,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5440,11 +5447,11 @@
       <c r="H108" s="40"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="48"/>
+      <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5458,11 +5465,11 @@
       <c r="H109" s="40"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
+      <c r="K109" s="48"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5476,11 +5483,11 @@
       <c r="H110" s="40"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="48"/>
+      <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5494,11 +5501,11 @@
       <c r="H111" s="40"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
+      <c r="K111" s="48"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5516,7 +5523,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5534,7 +5541,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5552,7 +5559,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5570,7 +5577,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5588,7 +5595,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5606,7 +5613,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5624,7 +5631,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5642,7 +5649,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5660,7 +5667,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5678,7 +5685,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5696,7 +5703,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5714,7 +5721,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5732,7 +5739,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5750,7 +5757,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5768,7 +5775,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5786,7 +5793,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5800,11 +5807,11 @@
       <c r="H128" s="40"/>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="48"/>
+      <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5818,11 +5825,11 @@
       <c r="H129" s="40"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
+      <c r="K129" s="48"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5840,7 +5847,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5858,7 +5865,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5876,7 +5883,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5890,11 +5897,11 @@
       <c r="H133" s="40"/>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="48"/>
+      <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5908,11 +5915,11 @@
       <c r="H134" s="40"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
+      <c r="K134" s="48"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5930,7 +5937,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5944,11 +5951,11 @@
       <c r="H136" s="40"/>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="48"/>
+      <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5962,11 +5969,11 @@
       <c r="H137" s="40"/>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
+      <c r="K137" s="48"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5984,7 +5991,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41">
-        <v>46568</v>
+        <v>46538</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -6002,7 +6009,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41">
-        <v>46599</v>
+        <v>46568</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -6020,7 +6027,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41">
-        <v>46630</v>
+        <v>46599</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -6038,7 +6045,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41">
-        <v>46660</v>
+        <v>46630</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -6052,11 +6059,11 @@
       <c r="H142" s="40"/>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
-      <c r="K142" s="48"/>
+      <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41">
-        <v>46691</v>
+        <v>46660</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -6070,65 +6077,65 @@
       <c r="H143" s="40"/>
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
-      <c r="K143" s="20"/>
+      <c r="K143" s="48"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="41">
-        <v>46721</v>
-      </c>
-      <c r="B144" s="15"/>
+        <v>46691</v>
+      </c>
+      <c r="B144" s="20"/>
       <c r="C144" s="13"/>
-      <c r="D144" s="44"/>
+      <c r="D144" s="40"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="44"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="40"/>
       <c r="I144" s="9"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="15"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41">
-        <v>46752</v>
+        <v>46721</v>
       </c>
       <c r="B145" s="15"/>
       <c r="C145" s="13"/>
       <c r="D145" s="44"/>
-      <c r="E145" s="49"/>
+      <c r="E145" s="9"/>
       <c r="F145" s="15"/>
       <c r="G145" s="43" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H145" s="44"/>
-      <c r="I145" s="49"/>
+      <c r="I145" s="9"/>
       <c r="J145" s="12"/>
       <c r="K145" s="15"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41">
-        <v>46783</v>
-      </c>
-      <c r="B146" s="20"/>
+        <v>46752</v>
+      </c>
+      <c r="B146" s="15"/>
       <c r="C146" s="13"/>
-      <c r="D146" s="40"/>
+      <c r="D146" s="44"/>
       <c r="E146" s="49"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H146" s="40"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="44"/>
       <c r="I146" s="49"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="20"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="15"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="41">
-        <v>46812</v>
+        <v>46783</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -6142,11 +6149,11 @@
       <c r="H147" s="40"/>
       <c r="I147" s="49"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="48"/>
+      <c r="K147" s="20"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41">
-        <v>46843</v>
+        <v>46812</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -6164,7 +6171,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="41">
-        <v>46873</v>
+        <v>46843</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -6178,11 +6185,11 @@
       <c r="H149" s="40"/>
       <c r="I149" s="49"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="20"/>
+      <c r="K149" s="48"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="41">
-        <v>46904</v>
+        <v>46873</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -6200,7 +6207,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41">
-        <v>46934</v>
+        <v>46904</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -6218,7 +6225,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="41">
-        <v>46965</v>
+        <v>46934</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6236,7 +6243,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="41">
-        <v>46996</v>
+        <v>46965</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6254,7 +6261,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="41">
-        <v>47026</v>
+        <v>46996</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6272,7 +6279,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41">
-        <v>47057</v>
+        <v>47026</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6290,7 +6297,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41">
-        <v>47087</v>
+        <v>47057</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6308,7 +6315,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41">
-        <v>47118</v>
+        <v>47087</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6326,7 +6333,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41">
-        <v>47149</v>
+        <v>47118</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6344,7 +6351,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41">
-        <v>47177</v>
+        <v>47149</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6362,7 +6369,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41">
-        <v>47208</v>
+        <v>47177</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6380,7 +6387,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41">
-        <v>47238</v>
+        <v>47208</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6398,7 +6405,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41">
-        <v>47269</v>
+        <v>47238</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6416,7 +6423,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
-        <v>47299</v>
+        <v>47269</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6434,7 +6441,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41">
-        <v>47330</v>
+        <v>47299</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6452,7 +6459,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41">
-        <v>47361</v>
+        <v>47330</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6470,7 +6477,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41">
-        <v>47391</v>
+        <v>47361</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6488,7 +6495,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
-        <v>47422</v>
+        <v>47391</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6506,7 +6513,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41">
-        <v>47452</v>
+        <v>47422</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6524,7 +6531,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
-        <v>47483</v>
+        <v>47452</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6542,7 +6549,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41">
-        <v>47514</v>
+        <v>47483</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6560,7 +6567,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41">
-        <v>47542</v>
+        <v>47514</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6578,7 +6585,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41">
-        <v>47573</v>
+        <v>47542</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6596,7 +6603,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41">
-        <v>47603</v>
+        <v>47573</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6614,7 +6621,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
-        <v>47634</v>
+        <v>47603</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6632,7 +6639,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41">
-        <v>47664</v>
+        <v>47634</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6650,7 +6657,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41">
-        <v>47695</v>
+        <v>47664</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6668,7 +6675,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="41">
-        <v>47726</v>
+        <v>47695</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6686,7 +6693,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41">
-        <v>47756</v>
+        <v>47726</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6704,7 +6711,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="41">
-        <v>47787</v>
+        <v>47756</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6721,7 +6728,9 @@
       <c r="K179" s="20"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="41"/>
+      <c r="A180" s="41">
+        <v>47787</v>
+      </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
       <c r="D180" s="40"/>
@@ -8305,20 +8314,36 @@
       <c r="K278" s="20"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="42"/>
-      <c r="B279" s="15"/>
-      <c r="C279" s="43"/>
-      <c r="D279" s="44"/>
+      <c r="A279" s="41"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="40"/>
       <c r="E279" s="49"/>
-      <c r="F279" s="15"/>
-      <c r="G279" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H279" s="44"/>
+      <c r="F279" s="20"/>
+      <c r="G279" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H279" s="40"/>
       <c r="I279" s="49"/>
-      <c r="J279" s="12"/>
-      <c r="K279" s="15"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="20"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" s="42"/>
+      <c r="B280" s="15"/>
+      <c r="C280" s="43"/>
+      <c r="D280" s="44"/>
+      <c r="E280" s="49"/>
+      <c r="F280" s="15"/>
+      <c r="G280" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H280" s="44"/>
+      <c r="I280" s="49"/>
+      <c r="J280" s="12"/>
+      <c r="K280" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8367,7 +8392,7 @@
   </sheetPr>
   <dimension ref="A2:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
       <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
@@ -12240,17 +12265,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -12414,7 +12439,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>108.636</v>
+        <v>112.636</v>
       </c>
       <c r="C7" s="38">
         <v>1</v>

--- a/CASUAL/LA CITY MARKET/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
+++ b/CASUAL/LA CITY MARKET/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="146">
   <si>
     <t>PERIOD</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>UT(0-5-11)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2832,7 +2835,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K280" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K282" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3209,12 +3212,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K280"/>
+  <dimension ref="A2:K282"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3585" topLeftCell="A81" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
+      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,7 +3376,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>23.635999999999996</v>
+        <v>22.635999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3383,7 +3386,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5270,8 +5273,8 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="41">
-        <v>45322</v>
+      <c r="A99" s="47" t="s">
+        <v>145</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5289,11 +5292,15 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
-        <v>45351</v>
-      </c>
-      <c r="B100" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C100" s="13"/>
-      <c r="D100" s="40"/>
+      <c r="D100" s="40">
+        <v>1</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
@@ -5303,13 +5310,15 @@
       <c r="H100" s="40"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="48"/>
+      <c r="K100" s="48">
+        <v>45318</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="41">
-        <v>45382</v>
-      </c>
-      <c r="B101" s="20"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C101" s="13"/>
       <c r="D101" s="40"/>
       <c r="E101" s="9"/>
@@ -5318,14 +5327,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H101" s="40"/>
+      <c r="H101" s="40">
+        <v>1</v>
+      </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="48"/>
+      <c r="K101" s="48">
+        <v>45303</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5339,11 +5352,11 @@
       <c r="H102" s="40"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="48"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5357,11 +5370,11 @@
       <c r="H103" s="40"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="48"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5375,11 +5388,11 @@
       <c r="H104" s="40"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="48"/>
+      <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5397,7 +5410,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5411,11 +5424,11 @@
       <c r="H106" s="40"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
+      <c r="K106" s="48"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
-        <v>45565</v>
+        <v>45504</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5433,7 +5446,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5451,7 +5464,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
-        <v>45626</v>
+        <v>45565</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5465,11 +5478,11 @@
       <c r="H109" s="40"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="48"/>
+      <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41">
-        <v>45657</v>
+        <v>45596</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5487,7 +5500,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41">
-        <v>45688</v>
+        <v>45626</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5505,7 +5518,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41">
-        <v>45716</v>
+        <v>45657</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5523,7 +5536,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41">
-        <v>45747</v>
+        <v>45688</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5537,11 +5550,11 @@
       <c r="H113" s="40"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="48"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41">
-        <v>45777</v>
+        <v>45716</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5559,7 +5572,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41">
-        <v>45808</v>
+        <v>45747</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5577,7 +5590,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41">
-        <v>45838</v>
+        <v>45777</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5595,7 +5608,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41">
-        <v>45869</v>
+        <v>45808</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5613,7 +5626,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41">
-        <v>45900</v>
+        <v>45838</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5631,7 +5644,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5649,7 +5662,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41">
-        <v>45961</v>
+        <v>45900</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5667,7 +5680,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41">
-        <v>45991</v>
+        <v>45930</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5685,7 +5698,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41">
-        <v>46022</v>
+        <v>45961</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5703,7 +5716,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41">
-        <v>46053</v>
+        <v>45991</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5721,7 +5734,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41">
-        <v>46081</v>
+        <v>46022</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5739,7 +5752,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41">
-        <v>46112</v>
+        <v>46053</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5757,7 +5770,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41">
-        <v>46142</v>
+        <v>46081</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5775,7 +5788,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41">
-        <v>46173</v>
+        <v>46112</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5793,7 +5806,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41">
-        <v>46203</v>
+        <v>46142</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5811,7 +5824,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41">
-        <v>46234</v>
+        <v>46173</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5825,11 +5838,11 @@
       <c r="H129" s="40"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="48"/>
+      <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41">
-        <v>46265</v>
+        <v>46203</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5847,7 +5860,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41">
-        <v>46295</v>
+        <v>46234</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5861,11 +5874,11 @@
       <c r="H131" s="40"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
+      <c r="K131" s="48"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41">
-        <v>46326</v>
+        <v>46265</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5883,7 +5896,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41">
-        <v>46356</v>
+        <v>46295</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5901,7 +5914,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41">
-        <v>46387</v>
+        <v>46326</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5915,11 +5928,11 @@
       <c r="H134" s="40"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="48"/>
+      <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41">
-        <v>46418</v>
+        <v>46356</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5937,7 +5950,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41">
-        <v>46446</v>
+        <v>46387</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5951,11 +5964,11 @@
       <c r="H136" s="40"/>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
+      <c r="K136" s="48"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41">
-        <v>46477</v>
+        <v>46418</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5969,11 +5982,11 @@
       <c r="H137" s="40"/>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
-      <c r="K137" s="48"/>
+      <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41">
-        <v>46507</v>
+        <v>46446</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5991,7 +6004,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41">
-        <v>46538</v>
+        <v>46477</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -6005,11 +6018,11 @@
       <c r="H139" s="40"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
-      <c r="K139" s="20"/>
+      <c r="K139" s="48"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41">
-        <v>46568</v>
+        <v>46507</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -6027,7 +6040,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41">
-        <v>46599</v>
+        <v>46538</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -6045,7 +6058,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41">
-        <v>46630</v>
+        <v>46568</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -6063,7 +6076,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41">
-        <v>46660</v>
+        <v>46599</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -6077,11 +6090,11 @@
       <c r="H143" s="40"/>
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
-      <c r="K143" s="48"/>
+      <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="41">
-        <v>46691</v>
+        <v>46630</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -6099,79 +6112,79 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41">
-        <v>46721</v>
-      </c>
-      <c r="B145" s="15"/>
+        <v>46660</v>
+      </c>
+      <c r="B145" s="20"/>
       <c r="C145" s="13"/>
-      <c r="D145" s="44"/>
+      <c r="D145" s="40"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H145" s="44"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="40"/>
       <c r="I145" s="9"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="15"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="48"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41">
-        <v>46752</v>
-      </c>
-      <c r="B146" s="15"/>
+        <v>46691</v>
+      </c>
+      <c r="B146" s="20"/>
       <c r="C146" s="13"/>
-      <c r="D146" s="44"/>
-      <c r="E146" s="49"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H146" s="44"/>
-      <c r="I146" s="49"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="15"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="40"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="41">
-        <v>46783</v>
-      </c>
-      <c r="B147" s="20"/>
+        <v>46721</v>
+      </c>
+      <c r="B147" s="15"/>
       <c r="C147" s="13"/>
-      <c r="D147" s="40"/>
-      <c r="E147" s="49"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="40"/>
-      <c r="I147" s="49"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="20"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="44"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="15"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41">
-        <v>46812</v>
-      </c>
-      <c r="B148" s="20"/>
+        <v>46752</v>
+      </c>
+      <c r="B148" s="15"/>
       <c r="C148" s="13"/>
-      <c r="D148" s="40"/>
+      <c r="D148" s="44"/>
       <c r="E148" s="49"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H148" s="40"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="44"/>
       <c r="I148" s="49"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="48"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="15"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="41">
-        <v>46843</v>
+        <v>46783</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -6185,11 +6198,11 @@
       <c r="H149" s="40"/>
       <c r="I149" s="49"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="48"/>
+      <c r="K149" s="20"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="41">
-        <v>46873</v>
+        <v>46812</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -6203,11 +6216,11 @@
       <c r="H150" s="40"/>
       <c r="I150" s="49"/>
       <c r="J150" s="11"/>
-      <c r="K150" s="20"/>
+      <c r="K150" s="48"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41">
-        <v>46904</v>
+        <v>46843</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -6221,11 +6234,11 @@
       <c r="H151" s="40"/>
       <c r="I151" s="49"/>
       <c r="J151" s="11"/>
-      <c r="K151" s="20"/>
+      <c r="K151" s="48"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="41">
-        <v>46934</v>
+        <v>46873</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6243,7 +6256,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="41">
-        <v>46965</v>
+        <v>46904</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6261,7 +6274,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="41">
-        <v>46996</v>
+        <v>46934</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6279,7 +6292,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41">
-        <v>47026</v>
+        <v>46965</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6297,7 +6310,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41">
-        <v>47057</v>
+        <v>46996</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6315,7 +6328,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41">
-        <v>47087</v>
+        <v>47026</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6333,7 +6346,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41">
-        <v>47118</v>
+        <v>47057</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6351,7 +6364,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41">
-        <v>47149</v>
+        <v>47087</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6369,7 +6382,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41">
-        <v>47177</v>
+        <v>47118</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6387,7 +6400,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41">
-        <v>47208</v>
+        <v>47149</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6405,7 +6418,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41">
-        <v>47238</v>
+        <v>47177</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6423,7 +6436,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
-        <v>47269</v>
+        <v>47208</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6441,7 +6454,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41">
-        <v>47299</v>
+        <v>47238</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6459,7 +6472,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41">
-        <v>47330</v>
+        <v>47269</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6477,7 +6490,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41">
-        <v>47361</v>
+        <v>47299</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6495,7 +6508,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
-        <v>47391</v>
+        <v>47330</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6513,7 +6526,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41">
-        <v>47422</v>
+        <v>47361</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6531,7 +6544,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
-        <v>47452</v>
+        <v>47391</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6549,7 +6562,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41">
-        <v>47483</v>
+        <v>47422</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6567,7 +6580,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41">
-        <v>47514</v>
+        <v>47452</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6585,7 +6598,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41">
-        <v>47542</v>
+        <v>47483</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6603,7 +6616,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41">
-        <v>47573</v>
+        <v>47514</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6621,7 +6634,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
-        <v>47603</v>
+        <v>47542</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6639,7 +6652,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41">
-        <v>47634</v>
+        <v>47573</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6657,7 +6670,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41">
-        <v>47664</v>
+        <v>47603</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6675,7 +6688,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="41">
-        <v>47695</v>
+        <v>47634</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6693,7 +6706,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41">
-        <v>47726</v>
+        <v>47664</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6711,7 +6724,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="41">
-        <v>47756</v>
+        <v>47695</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6729,7 +6742,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="41">
-        <v>47787</v>
+        <v>47726</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6746,7 +6759,9 @@
       <c r="K180" s="20"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="41"/>
+      <c r="A181" s="41">
+        <v>47756</v>
+      </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
       <c r="D181" s="40"/>
@@ -6762,7 +6777,9 @@
       <c r="K181" s="20"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="41"/>
+      <c r="A182" s="41">
+        <v>47787</v>
+      </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
       <c r="D182" s="40"/>
@@ -8330,20 +8347,52 @@
       <c r="K279" s="20"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="42"/>
-      <c r="B280" s="15"/>
-      <c r="C280" s="43"/>
-      <c r="D280" s="44"/>
+      <c r="A280" s="41"/>
+      <c r="B280" s="20"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="40"/>
       <c r="E280" s="49"/>
-      <c r="F280" s="15"/>
-      <c r="G280" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H280" s="44"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H280" s="40"/>
       <c r="I280" s="49"/>
-      <c r="J280" s="12"/>
-      <c r="K280" s="15"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="20"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" s="41"/>
+      <c r="B281" s="20"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="40"/>
+      <c r="E281" s="49"/>
+      <c r="F281" s="20"/>
+      <c r="G281" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H281" s="40"/>
+      <c r="I281" s="49"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="20"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" s="42"/>
+      <c r="B282" s="15"/>
+      <c r="C282" s="43"/>
+      <c r="D282" s="44"/>
+      <c r="E282" s="49"/>
+      <c r="F282" s="15"/>
+      <c r="G282" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H282" s="44"/>
+      <c r="I282" s="49"/>
+      <c r="J282" s="12"/>
+      <c r="K282" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12439,7 +12488,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>112.636</v>
+        <v>110.636</v>
       </c>
       <c r="C7" s="38">
         <v>1</v>

--- a/CASUAL/LA CITY MARKET/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
+++ b/CASUAL/LA CITY MARKET/DIMAANO, LEOVIGILDA ANGCAYA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CITY MARKET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CITY MARKET\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A8E9F2-138E-4E43-BE2A-014FFAE13CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="5" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="142">
   <si>
     <t>PERIOD</t>
   </si>
@@ -410,48 +411,21 @@
     <t>11/23,24/2023</t>
   </si>
   <si>
-    <t>A(6-0-0)</t>
-  </si>
-  <si>
-    <t>12/8,10,16,20,28/2022</t>
-  </si>
-  <si>
     <t>A(5-0-0)</t>
   </si>
   <si>
     <t>UT(0-2-52)</t>
   </si>
   <si>
-    <t>A(7-0-0)</t>
-  </si>
-  <si>
-    <t>11/11,17-19,22-24/2022</t>
-  </si>
-  <si>
     <t>UT(0-2-19)</t>
   </si>
   <si>
-    <t>10/1,18,26-28/2022</t>
-  </si>
-  <si>
     <t>UT(0-0-39)</t>
   </si>
   <si>
-    <t>A(4-0-0)</t>
-  </si>
-  <si>
-    <t>9/9,22,29,30/2022</t>
-  </si>
-  <si>
     <t>UT(0-1-5)</t>
   </si>
   <si>
-    <t>8/5,10,18-20,24/2022</t>
-  </si>
-  <si>
-    <t>7/9,19,20,22/2022</t>
-  </si>
-  <si>
     <t>UT(0-4-44)</t>
   </si>
   <si>
@@ -464,9 +438,6 @@
     <t>UT(0-3-24)</t>
   </si>
   <si>
-    <t>5/5-7,24/2022</t>
-  </si>
-  <si>
     <t>UT(0-2-5)</t>
   </si>
   <si>
@@ -477,12 +448,30 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>7/9,20/2022</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>8/5,24/2022</t>
+  </si>
+  <si>
+    <t>10/1,28/2022</t>
+  </si>
+  <si>
+    <t>11/17-19,22-23/2022</t>
+  </si>
+  <si>
+    <t>12/10,16/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1410,7 +1399,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AD954A-7DD0-44FF-AB11-86F01056025D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1442,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9734F851-CE56-4EDF-9EF1-953EE5DBE251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1506,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20BBBF6-75FF-4CBE-ACA6-861D3D1E7806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1566,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D946256-EBA3-4C5E-AE90-878D5CCD71A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1632,7 @@
         <xdr:cNvPr id="6" name="Arrow: Left-Right 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3A2BDE-476B-4DD9-9E27-446EC9F2235E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1695,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBE5C18-7CCB-4DF4-B046-F8228CD70B27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1793,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82624F04-EE7B-4FCB-9116-9D70AD30C87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1852,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14E1DB5-CA39-407E-9D7F-F15CAEC7010D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1917,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F62F5BC-A343-4F32-BDC2-D47ECC0CCE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1960,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB27CA2-2552-44E6-A70A-046BB421FD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2035,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8909640B-E004-43FC-ABD8-AE5736852DDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2221,7 @@
         <xdr:cNvPr id="13" name="Oval 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20CC74B-D16E-44AB-8CBC-F2E8E6BAF9B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2287,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0366E899-0AE8-4DB2-AF27-0D5D4E430ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2345,7 @@
         <xdr:cNvPr id="15" name="Oval 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB812C1-23F7-4585-97FF-0895CE7B771F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2411,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12B1D48-77ED-4828-9B15-4F15CF7CC202}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2467,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889682BF-D44A-4475-9B2D-5ED8A675DCF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2542,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE4D25-2139-496B-845E-126AABE113D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2585,7 @@
         <xdr:cNvPr id="19" name="Oval 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D279C-7E4C-4B53-85A5-A21A8FE39F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2651,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2129D637-A52B-4CD3-B274-97910BC7E60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +2707,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6AFE9D-0D0D-4B8C-AC0C-2BD2F4978AA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2797,7 +2786,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2814,7 +2803,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="INSTRUCTION"/>
@@ -2835,25 +2824,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K282" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K280" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2865,25 +2854,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3190,7 +3179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3200,7 +3189,7 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3208,34 +3197,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K282"/>
+  <dimension ref="A2:K280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3585" topLeftCell="A81" activePane="bottomLeft"/>
+      <pane ySplit="3588" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3256,7 +3245,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3274,7 +3263,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3294,7 +3283,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3302,7 +3291,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3315,7 +3304,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3332,7 +3321,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3376,7 +3365,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>22.635999999999996</v>
+        <v>45.885999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3386,12 +3375,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>88</v>
+        <v>88.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -3411,7 +3400,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -3431,7 +3420,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -3457,7 +3446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -3477,7 +3466,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -3497,7 +3486,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -3517,7 +3506,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -3537,7 +3526,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -3557,7 +3546,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -3577,7 +3566,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -3597,7 +3586,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -3617,7 +3606,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -3637,7 +3626,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -3657,7 +3646,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>64</v>
       </c>
@@ -3675,7 +3664,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -3695,7 +3684,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -3715,7 +3704,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -3735,7 +3724,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -3755,7 +3744,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -3775,7 +3764,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -3795,7 +3784,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -3815,7 +3804,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="48"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -3841,7 +3830,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -3867,7 +3856,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -3893,7 +3882,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -3913,7 +3902,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -3939,7 +3928,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>66</v>
       </c>
@@ -3957,7 +3946,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -3977,7 +3966,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -3997,7 +3986,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -4017,7 +4006,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -4037,7 +4026,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -4057,7 +4046,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -4077,7 +4066,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -4097,7 +4086,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -4123,7 +4112,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -4143,7 +4132,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -4169,7 +4158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -4189,7 +4178,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -4209,7 +4198,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>74</v>
       </c>
@@ -4227,7 +4216,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="48"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -4247,7 +4236,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -4271,7 +4260,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -4291,7 +4280,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -4311,7 +4300,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -4331,7 +4320,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="48"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -4351,7 +4340,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -4371,7 +4360,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="48"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -4391,7 +4380,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -4411,7 +4400,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -4437,7 +4426,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -4457,7 +4446,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -4477,7 +4466,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="48"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>82</v>
       </c>
@@ -4495,7 +4484,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="48"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -4515,7 +4504,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -4535,7 +4524,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -4555,7 +4544,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -4581,14 +4570,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="40">
-        <v>1</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
@@ -4599,42 +4588,46 @@
       <c r="H67" s="40"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="48">
-        <v>44659</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
+      <c r="K67" s="48"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="41">
+        <v>44682</v>
+      </c>
       <c r="B68" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="40">
-        <v>0.64800000000000002</v>
+        <v>0.26</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="40"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="48"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="48">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
       <c r="D69" s="40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
@@ -4645,19 +4638,17 @@
       <c r="H69" s="40"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="20" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C70" s="13"/>
-      <c r="D70" s="40">
-        <v>0.26</v>
-      </c>
+      <c r="D70" s="40"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13" t="str">
@@ -4667,14 +4658,14 @@
       <c r="H70" s="40"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="48"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
@@ -4692,16 +4683,18 @@
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="20" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="40"/>
+      <c r="D72" s="40">
+        <v>0.59199999999999997</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13" t="str">
@@ -4713,18 +4706,18 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
       <c r="D73" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
@@ -4735,68 +4728,68 @@
       <c r="H73" s="40"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
+      <c r="K73" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="41">
+        <v>44805</v>
+      </c>
       <c r="B74" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="40">
-        <v>0.59199999999999997</v>
+        <v>1</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="40"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="48"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="41">
-        <v>44774</v>
-      </c>
+      <c r="K74" s="48">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="41"/>
       <c r="B75" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C75" s="13"/>
       <c r="D75" s="40">
-        <v>6</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H75" s="40"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="48"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
       <c r="D76" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
@@ -4807,18 +4800,18 @@
       <c r="H76" s="40"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="40">
-        <v>0.13500000000000001</v>
+        <v>8.1000000000000016E-2</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
@@ -4829,14 +4822,14 @@
       <c r="H77" s="40"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="48"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="20"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -4854,17 +4847,17 @@
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
       <c r="B79" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="40">
-        <v>8.1000000000000016E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
@@ -4877,18 +4870,18 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
       <c r="D80" s="40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
@@ -4900,17 +4893,17 @@
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="20" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="40">
-        <v>0.28999999999999998</v>
+        <v>3</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
@@ -4921,43 +4914,37 @@
       <c r="H81" s="40"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="41">
-        <v>44896</v>
-      </c>
+      <c r="K81" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="41"/>
       <c r="B82" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C82" s="13">
-        <v>1.25</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C82" s="13"/>
       <c r="D82" s="40">
-        <v>2</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H82" s="40"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="K82" s="20"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="20"/>
       <c r="C83" s="13"/>
-      <c r="D83" s="40">
-        <v>5</v>
-      </c>
+      <c r="D83" s="40"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
@@ -4967,51 +4954,51 @@
       <c r="H83" s="40"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
-      <c r="B84" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="40">
-        <v>0.35799999999999998</v>
-      </c>
+      <c r="K83" s="20"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="41">
+        <v>44957</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D84" s="40"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="47" t="s">
-        <v>93</v>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="41">
+        <v>44985</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="40"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="40"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
-        <v>44957</v>
+        <v>45016</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -5027,11 +5014,11 @@
       <c r="H86" s="40"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="48"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
-        <v>44985</v>
+        <v>45046</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5049,9 +5036,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -5067,11 +5054,11 @@
       <c r="H88" s="40"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="48"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="20"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
-        <v>45046</v>
+        <v>45107</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13">
@@ -5087,11 +5074,13 @@
       <c r="H89" s="40"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="48">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41">
-        <v>45077</v>
+        <v>45138</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13">
@@ -5109,9 +5098,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41">
-        <v>45107</v>
+        <v>45169</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5127,13 +5116,11 @@
       <c r="H91" s="40"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="48">
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="48"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
-        <v>45138</v>
+        <v>45199</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13">
@@ -5151,9 +5138,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
-        <v>45169</v>
+        <v>45230</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13">
@@ -5169,11 +5156,11 @@
       <c r="H93" s="40"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="48"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="20"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
-        <v>45199</v>
+        <v>45260</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5189,13 +5176,15 @@
       <c r="H94" s="40"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="48"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41">
-        <v>45230</v>
-      </c>
-      <c r="B95" s="20"/>
+        <v>45291</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
@@ -5206,77 +5195,79 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H95" s="40"/>
+      <c r="H95" s="40">
+        <v>1</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="41">
-        <v>45260</v>
-      </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K95" s="48">
+        <v>45283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="41"/>
+      <c r="B96" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="13"/>
       <c r="D96" s="40"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G96" s="13"/>
       <c r="H96" s="40"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="48"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="41">
-        <v>45291</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K96" s="20"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="13"/>
       <c r="D97" s="40"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H97" s="40">
-        <v>1</v>
-      </c>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="40"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="48">
-        <v>45283</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
+      <c r="K97" s="20"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="41">
+        <v>45322</v>
+      </c>
       <c r="B98" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D98" s="40">
+        <v>1</v>
+      </c>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13"/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H98" s="40"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="B99" s="20"/>
+      <c r="K98" s="48">
+        <v>45318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="41"/>
+      <c r="B99" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C99" s="13"/>
       <c r="D99" s="40"/>
       <c r="E99" s="9"/>
@@ -5285,40 +5276,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="40"/>
+      <c r="H99" s="40">
+        <v>1</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="48">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C100" s="13"/>
-      <c r="D100" s="40">
-        <v>1</v>
-      </c>
+      <c r="D100" s="40"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H100" s="40"/>
+      <c r="H100" s="40">
+        <v>1</v>
+      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
       <c r="K100" s="48">
-        <v>45318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
-      <c r="B101" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="41">
+        <v>45382</v>
+      </c>
+      <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="40"/>
       <c r="E101" s="9"/>
@@ -5327,18 +5322,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H101" s="40">
-        <v>1</v>
-      </c>
+      <c r="H101" s="40"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="48">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="48"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41">
-        <v>45351</v>
+        <v>45412</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5352,11 +5343,11 @@
       <c r="H102" s="40"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="48"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="20"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41">
-        <v>45382</v>
+        <v>45443</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5370,11 +5361,11 @@
       <c r="H103" s="40"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="48"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41">
-        <v>45412</v>
+        <v>45473</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5388,11 +5379,11 @@
       <c r="H104" s="40"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="48"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41">
-        <v>45443</v>
+        <v>45504</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5408,9 +5399,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41">
-        <v>45473</v>
+        <v>45535</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5424,11 +5415,11 @@
       <c r="H106" s="40"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="48"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="20"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41">
-        <v>45504</v>
+        <v>45565</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5444,9 +5435,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41">
-        <v>45535</v>
+        <v>45596</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5462,9 +5453,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41">
-        <v>45565</v>
+        <v>45626</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5478,11 +5469,11 @@
       <c r="H109" s="40"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="48"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41">
-        <v>45596</v>
+        <v>45657</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5498,9 +5489,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41">
-        <v>45626</v>
+        <v>45688</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5516,9 +5507,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="48"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41">
-        <v>45657</v>
+        <v>45716</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5534,9 +5525,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41">
-        <v>45688</v>
+        <v>45747</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5550,11 +5541,11 @@
       <c r="H113" s="40"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="48"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="20"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41">
-        <v>45716</v>
+        <v>45777</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5570,9 +5561,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41">
-        <v>45747</v>
+        <v>45808</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5588,9 +5579,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41">
-        <v>45777</v>
+        <v>45838</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5606,9 +5597,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41">
-        <v>45808</v>
+        <v>45869</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5624,9 +5615,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41">
-        <v>45838</v>
+        <v>45900</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5642,9 +5633,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5660,9 +5651,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41">
-        <v>45900</v>
+        <v>45961</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5678,9 +5669,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41">
-        <v>45930</v>
+        <v>45991</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5696,9 +5687,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41">
-        <v>45961</v>
+        <v>46022</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5714,9 +5705,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41">
-        <v>45991</v>
+        <v>46053</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5732,9 +5723,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41">
-        <v>46022</v>
+        <v>46081</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5750,9 +5741,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41">
-        <v>46053</v>
+        <v>46112</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5768,9 +5759,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41">
-        <v>46081</v>
+        <v>46142</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5786,9 +5777,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41">
-        <v>46112</v>
+        <v>46173</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5804,9 +5795,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41">
-        <v>46142</v>
+        <v>46203</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5822,9 +5813,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41">
-        <v>46173</v>
+        <v>46234</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5838,11 +5829,11 @@
       <c r="H129" s="40"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K129" s="48"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41">
-        <v>46203</v>
+        <v>46265</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5858,9 +5849,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41">
-        <v>46234</v>
+        <v>46295</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5874,11 +5865,11 @@
       <c r="H131" s="40"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="48"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41">
-        <v>46265</v>
+        <v>46326</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5894,9 +5885,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41">
-        <v>46295</v>
+        <v>46356</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5912,9 +5903,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41">
-        <v>46326</v>
+        <v>46387</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5928,11 +5919,11 @@
       <c r="H134" s="40"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K134" s="48"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41">
-        <v>46356</v>
+        <v>46418</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5948,9 +5939,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41">
-        <v>46387</v>
+        <v>46446</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5964,11 +5955,11 @@
       <c r="H136" s="40"/>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="48"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41">
-        <v>46418</v>
+        <v>46477</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5982,11 +5973,11 @@
       <c r="H137" s="40"/>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K137" s="48"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41">
-        <v>46446</v>
+        <v>46507</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -6002,9 +5993,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="41">
-        <v>46477</v>
+        <v>46538</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -6018,11 +6009,11 @@
       <c r="H139" s="40"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
-      <c r="K139" s="48"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41">
-        <v>46507</v>
+        <v>46568</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -6038,9 +6029,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41">
-        <v>46538</v>
+        <v>46599</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -6056,9 +6047,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="41">
-        <v>46568</v>
+        <v>46630</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -6074,9 +6065,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="41">
-        <v>46599</v>
+        <v>46660</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -6090,11 +6081,11 @@
       <c r="H143" s="40"/>
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
-      <c r="K143" s="20"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K143" s="48"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="41">
-        <v>46630</v>
+        <v>46691</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -6110,81 +6101,81 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="41">
-        <v>46660</v>
-      </c>
-      <c r="B145" s="20"/>
+        <v>46721</v>
+      </c>
+      <c r="B145" s="15"/>
       <c r="C145" s="13"/>
-      <c r="D145" s="40"/>
+      <c r="D145" s="44"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H145" s="40"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="44"/>
       <c r="I145" s="9"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="48"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J145" s="12"/>
+      <c r="K145" s="15"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="41">
-        <v>46691</v>
-      </c>
-      <c r="B146" s="20"/>
+        <v>46752</v>
+      </c>
+      <c r="B146" s="15"/>
       <c r="C146" s="13"/>
-      <c r="D146" s="40"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H146" s="40"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="20"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D146" s="44"/>
+      <c r="E146" s="49"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="44"/>
+      <c r="I146" s="49"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="15"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="41">
-        <v>46721</v>
-      </c>
-      <c r="B147" s="15"/>
+        <v>46783</v>
+      </c>
+      <c r="B147" s="20"/>
       <c r="C147" s="13"/>
-      <c r="D147" s="44"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="44"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="15"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D147" s="40"/>
+      <c r="E147" s="49"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="40"/>
+      <c r="I147" s="49"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41">
-        <v>46752</v>
-      </c>
-      <c r="B148" s="15"/>
+        <v>46812</v>
+      </c>
+      <c r="B148" s="20"/>
       <c r="C148" s="13"/>
-      <c r="D148" s="44"/>
+      <c r="D148" s="40"/>
       <c r="E148" s="49"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H148" s="44"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="40"/>
       <c r="I148" s="49"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="15"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J148" s="11"/>
+      <c r="K148" s="48"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="41">
-        <v>46783</v>
+        <v>46843</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -6198,11 +6189,11 @@
       <c r="H149" s="40"/>
       <c r="I149" s="49"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="20"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K149" s="48"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="41">
-        <v>46812</v>
+        <v>46873</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -6216,11 +6207,11 @@
       <c r="H150" s="40"/>
       <c r="I150" s="49"/>
       <c r="J150" s="11"/>
-      <c r="K150" s="48"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41">
-        <v>46843</v>
+        <v>46904</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -6234,11 +6225,11 @@
       <c r="H151" s="40"/>
       <c r="I151" s="49"/>
       <c r="J151" s="11"/>
-      <c r="K151" s="48"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="41">
-        <v>46873</v>
+        <v>46934</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6254,9 +6245,9 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="41">
-        <v>46904</v>
+        <v>46965</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6272,9 +6263,9 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="41">
-        <v>46934</v>
+        <v>46996</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6290,9 +6281,9 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41">
-        <v>46965</v>
+        <v>47026</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6308,9 +6299,9 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41">
-        <v>46996</v>
+        <v>47057</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6326,9 +6317,9 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41">
-        <v>47026</v>
+        <v>47087</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6344,9 +6335,9 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41">
-        <v>47057</v>
+        <v>47118</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6362,9 +6353,9 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41">
-        <v>47087</v>
+        <v>47149</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6380,9 +6371,9 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41">
-        <v>47118</v>
+        <v>47177</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6398,9 +6389,9 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41">
-        <v>47149</v>
+        <v>47208</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6416,9 +6407,9 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41">
-        <v>47177</v>
+        <v>47238</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6434,9 +6425,9 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41">
-        <v>47208</v>
+        <v>47269</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6452,9 +6443,9 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41">
-        <v>47238</v>
+        <v>47299</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6470,9 +6461,9 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41">
-        <v>47269</v>
+        <v>47330</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6488,9 +6479,9 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41">
-        <v>47299</v>
+        <v>47361</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6506,9 +6497,9 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41">
-        <v>47330</v>
+        <v>47391</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6524,9 +6515,9 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41">
-        <v>47361</v>
+        <v>47422</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6542,9 +6533,9 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41">
-        <v>47391</v>
+        <v>47452</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6560,9 +6551,9 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41">
-        <v>47422</v>
+        <v>47483</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6578,9 +6569,9 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41">
-        <v>47452</v>
+        <v>47514</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6596,9 +6587,9 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41">
-        <v>47483</v>
+        <v>47542</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6614,9 +6605,9 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41">
-        <v>47514</v>
+        <v>47573</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6632,9 +6623,9 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41">
-        <v>47542</v>
+        <v>47603</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6650,9 +6641,9 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41">
-        <v>47573</v>
+        <v>47634</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6668,9 +6659,9 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41">
-        <v>47603</v>
+        <v>47664</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6686,9 +6677,9 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41">
-        <v>47634</v>
+        <v>47695</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6704,9 +6695,9 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41">
-        <v>47664</v>
+        <v>47726</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6722,9 +6713,9 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="41">
-        <v>47695</v>
+        <v>47756</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6740,9 +6731,9 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41">
-        <v>47726</v>
+        <v>47787</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6758,10 +6749,8 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="41">
-        <v>47756</v>
-      </c>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="41"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
       <c r="D181" s="40"/>
@@ -6776,10 +6765,8 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="41">
-        <v>47787</v>
-      </c>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="41"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
       <c r="D182" s="40"/>
@@ -6794,7 +6781,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -6810,7 +6797,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -6826,7 +6813,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="41"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -6842,7 +6829,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -6858,7 +6845,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="41"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -6874,7 +6861,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -6890,7 +6877,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="41"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -6906,7 +6893,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -6922,7 +6909,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="41"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -6938,7 +6925,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="41"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -6954,7 +6941,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="41"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -6970,7 +6957,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="41"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6986,7 +6973,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -7002,7 +6989,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="41"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -7018,7 +7005,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="41"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -7034,7 +7021,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="41"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -7050,7 +7037,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -7066,7 +7053,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="41"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7082,7 +7069,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="41"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -7098,7 +7085,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="41"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -7114,7 +7101,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="41"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -7130,7 +7117,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="41"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -7146,7 +7133,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="41"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -7162,7 +7149,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="41"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -7178,7 +7165,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="41"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -7194,7 +7181,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="41"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -7210,7 +7197,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="41"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -7226,7 +7213,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="41"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -7242,7 +7229,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="41"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -7258,7 +7245,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="41"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7274,7 +7261,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="41"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7290,7 +7277,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="41"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -7306,7 +7293,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="41"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -7322,7 +7309,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="41"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -7338,7 +7325,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="41"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -7354,7 +7341,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="41"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -7370,7 +7357,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="41"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -7386,7 +7373,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="41"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -7402,7 +7389,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="41"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -7418,7 +7405,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="41"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -7434,7 +7421,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="41"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -7450,7 +7437,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="41"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -7466,7 +7453,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="41"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -7482,7 +7469,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="41"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -7498,7 +7485,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="41"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -7514,7 +7501,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="41"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -7530,7 +7517,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="41"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -7546,7 +7533,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="41"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -7562,7 +7549,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="41"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -7578,7 +7565,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="41"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -7594,7 +7581,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="41"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -7610,7 +7597,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="41"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -7626,7 +7613,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="41"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -7642,7 +7629,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="41"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -7658,7 +7645,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="41"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -7674,7 +7661,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="41"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -7690,7 +7677,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="41"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -7706,7 +7693,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="41"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -7722,7 +7709,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="41"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -7738,7 +7725,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="41"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -7754,7 +7741,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="41"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -7770,7 +7757,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="41"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -7786,7 +7773,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="41"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -7802,7 +7789,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="41"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -7818,7 +7805,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="41"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -7834,7 +7821,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="41"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -7850,7 +7837,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="41"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -7866,7 +7853,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="41"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -7882,7 +7869,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="41"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -7898,7 +7885,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="41"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -7914,7 +7901,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="41"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -7930,7 +7917,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="41"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -7946,7 +7933,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="41"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -7962,7 +7949,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="41"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -7978,7 +7965,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="41"/>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -7994,7 +7981,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="41"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -8010,7 +7997,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="41"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -8026,7 +8013,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="41"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -8042,7 +8029,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="41"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -8058,7 +8045,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="41"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -8074,7 +8061,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="41"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -8090,7 +8077,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="41"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -8106,7 +8093,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="41"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -8122,7 +8109,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="41"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -8138,7 +8125,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="41"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -8154,7 +8141,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="41"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -8170,7 +8157,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="41"/>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
@@ -8186,7 +8173,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="41"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -8202,7 +8189,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="41"/>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -8218,7 +8205,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="41"/>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -8234,7 +8221,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="41"/>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -8250,7 +8237,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="41"/>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -8266,7 +8253,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="41"/>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -8282,7 +8269,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="41"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -8298,7 +8285,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="41"/>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -8314,7 +8301,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="41"/>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -8330,7 +8317,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="41"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -8346,53 +8333,21 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="41"/>
-      <c r="B280" s="20"/>
-      <c r="C280" s="13"/>
-      <c r="D280" s="40"/>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" s="42"/>
+      <c r="B280" s="15"/>
+      <c r="C280" s="43"/>
+      <c r="D280" s="44"/>
       <c r="E280" s="49"/>
-      <c r="F280" s="20"/>
-      <c r="G280" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H280" s="40"/>
+      <c r="F280" s="15"/>
+      <c r="G280" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H280" s="44"/>
       <c r="I280" s="49"/>
-      <c r="J280" s="11"/>
-      <c r="K280" s="20"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" s="41"/>
-      <c r="B281" s="20"/>
-      <c r="C281" s="13"/>
-      <c r="D281" s="40"/>
-      <c r="E281" s="49"/>
-      <c r="F281" s="20"/>
-      <c r="G281" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H281" s="40"/>
-      <c r="I281" s="49"/>
-      <c r="J281" s="11"/>
-      <c r="K281" s="20"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="42"/>
-      <c r="B282" s="15"/>
-      <c r="C282" s="43"/>
-      <c r="D282" s="44"/>
-      <c r="E282" s="49"/>
-      <c r="F282" s="15"/>
-      <c r="G282" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H282" s="44"/>
-      <c r="I282" s="49"/>
-      <c r="J282" s="12"/>
-      <c r="K282" s="15"/>
+      <c r="J280" s="12"/>
+      <c r="K280" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8409,10 +8364,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8435,34 +8390,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K200"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A91" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
       <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -8483,7 +8438,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -8501,7 +8456,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -8521,7 +8476,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -8529,7 +8484,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -8542,7 +8497,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -8559,7 +8514,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -8594,7 +8549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -8618,7 +8573,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -8640,7 +8595,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -8664,7 +8619,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43160</v>
       </c>
@@ -8688,7 +8643,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
         <v>48</v>
@@ -8710,7 +8665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43221</v>
       </c>
@@ -8734,7 +8689,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>50</v>
@@ -8754,7 +8709,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -8776,7 +8731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -8798,7 +8753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43282</v>
       </c>
@@ -8822,7 +8777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41"/>
       <c r="B19" s="20" t="s">
         <v>53</v>
@@ -8844,7 +8799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
       <c r="B20" s="20" t="s">
         <v>45</v>
@@ -8866,7 +8821,7 @@
         <v>43302</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>48</v>
@@ -8888,7 +8843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43313</v>
       </c>
@@ -8912,7 +8867,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>43344</v>
       </c>
@@ -8936,7 +8891,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43374</v>
       </c>
@@ -8960,7 +8915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43405</v>
       </c>
@@ -8984,7 +8939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41"/>
       <c r="B26" s="20" t="s">
         <v>61</v>
@@ -9006,7 +8961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43435</v>
       </c>
@@ -9030,7 +8985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>64</v>
       </c>
@@ -9048,7 +9003,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43497</v>
       </c>
@@ -9070,7 +9025,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43525</v>
       </c>
@@ -9094,7 +9049,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43586</v>
       </c>
@@ -9118,7 +9073,7 @@
         <v>43606</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43617</v>
       </c>
@@ -9140,7 +9095,7 @@
         <v>43638</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43678</v>
       </c>
@@ -9164,7 +9119,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -9184,7 +9139,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43709</v>
       </c>
@@ -9208,7 +9163,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>43739</v>
       </c>
@@ -9232,7 +9187,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>45</v>
@@ -9254,7 +9209,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>43770</v>
       </c>
@@ -9278,7 +9233,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41"/>
       <c r="B39" s="20" t="s">
         <v>53</v>
@@ -9298,7 +9253,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -9320,7 +9275,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -9342,7 +9297,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>66</v>
       </c>
@@ -9360,7 +9315,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>43862</v>
       </c>
@@ -9382,7 +9337,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41"/>
       <c r="B44" s="20" t="s">
         <v>51</v>
@@ -9402,7 +9357,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44013</v>
       </c>
@@ -9426,7 +9381,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44044</v>
       </c>
@@ -9450,7 +9405,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44075</v>
       </c>
@@ -9474,7 +9429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41"/>
       <c r="B48" s="20" t="s">
         <v>70</v>
@@ -9496,7 +9451,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -9518,7 +9473,7 @@
         <v>44103</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44105</v>
       </c>
@@ -9540,7 +9495,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>74</v>
       </c>
@@ -9558,7 +9513,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44197</v>
       </c>
@@ -9582,7 +9537,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44228</v>
       </c>
@@ -9606,7 +9561,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44378</v>
       </c>
@@ -9628,7 +9583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44440</v>
       </c>
@@ -9650,7 +9605,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44470</v>
       </c>
@@ -9672,7 +9627,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44531</v>
       </c>
@@ -9696,7 +9651,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
         <v>82</v>
       </c>
@@ -9714,7 +9669,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44562</v>
       </c>
@@ -9738,7 +9693,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44652</v>
       </c>
@@ -9762,7 +9717,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44682</v>
       </c>
@@ -9786,7 +9741,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="20" t="s">
         <v>58</v>
@@ -9808,7 +9763,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44743</v>
       </c>
@@ -9832,7 +9787,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44774</v>
       </c>
@@ -9856,7 +9811,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="20" t="s">
         <v>50</v>
@@ -9876,7 +9831,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="42">
         <v>44805</v>
       </c>
@@ -9900,7 +9855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44835</v>
       </c>
@@ -9922,7 +9877,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="20" t="s">
         <v>58</v>
@@ -9944,7 +9899,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44866</v>
       </c>
@@ -9968,7 +9923,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="20" t="s">
         <v>45</v>
@@ -9990,7 +9945,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44896</v>
       </c>
@@ -10014,7 +9969,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="20" t="s">
         <v>50</v>
@@ -10034,7 +9989,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
         <v>93</v>
       </c>
@@ -10052,7 +10007,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44927</v>
       </c>
@@ -10076,7 +10031,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41"/>
       <c r="B75" s="20" t="s">
         <v>46</v>
@@ -10098,7 +10053,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="20" t="s">
         <v>94</v>
@@ -10120,7 +10075,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>44986</v>
       </c>
@@ -10144,7 +10099,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -10166,7 +10121,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
       <c r="B79" s="20" t="s">
         <v>50</v>
@@ -10186,7 +10141,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="20" t="s">
         <v>45</v>
@@ -10208,7 +10163,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>45047</v>
       </c>
@@ -10232,7 +10187,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>45078</v>
       </c>
@@ -10256,7 +10211,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
         <v>45101</v>
       </c>
@@ -10280,7 +10235,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>45108</v>
       </c>
@@ -10304,7 +10259,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="20" t="s">
         <v>45</v>
@@ -10326,7 +10281,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
         <v>45136</v>
       </c>
@@ -10350,7 +10305,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
         <v>45139</v>
       </c>
@@ -10374,7 +10329,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20" t="s">
         <v>101</v>
@@ -10394,7 +10349,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="20" t="s">
         <v>53</v>
@@ -10416,7 +10371,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="20" t="s">
         <v>53</v>
@@ -10438,7 +10393,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41">
         <v>45170</v>
       </c>
@@ -10462,7 +10417,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="20" t="s">
         <v>48</v>
@@ -10484,7 +10439,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="20" t="s">
         <v>70</v>
@@ -10506,7 +10461,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
         <v>45200</v>
       </c>
@@ -10530,7 +10485,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="20" t="s">
         <v>53</v>
@@ -10552,7 +10507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="20" t="s">
         <v>109</v>
@@ -10574,7 +10529,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="20" t="s">
         <v>48</v>
@@ -10596,7 +10551,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41">
         <v>45231</v>
       </c>
@@ -10620,7 +10575,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20" t="s">
         <v>48</v>
@@ -10642,7 +10597,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20" t="s">
         <v>70</v>
@@ -10664,7 +10619,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20" t="s">
         <v>70</v>
@@ -10686,7 +10641,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20" t="s">
         <v>70</v>
@@ -10708,7 +10663,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="20" t="s">
         <v>70</v>
@@ -10730,7 +10685,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="20" t="s">
         <v>70</v>
@@ -10752,7 +10707,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="20" t="s">
         <v>120</v>
@@ -10774,7 +10729,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="20" t="s">
         <v>53</v>
@@ -10796,7 +10751,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
       <c r="B107" s="20" t="s">
         <v>45</v>
@@ -10818,7 +10773,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41"/>
       <c r="B108" s="20" t="s">
         <v>45</v>
@@ -10840,7 +10795,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -10856,7 +10811,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -10872,7 +10827,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -10888,7 +10843,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -10904,7 +10859,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -10920,7 +10875,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -10936,7 +10891,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -10952,7 +10907,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -10968,7 +10923,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -10984,7 +10939,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -11000,7 +10955,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -11016,7 +10971,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -11032,7 +10987,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -11048,7 +11003,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -11064,7 +11019,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -11080,7 +11035,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -11096,7 +11051,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -11112,7 +11067,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -11128,7 +11083,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -11144,7 +11099,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -11160,7 +11115,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -11176,7 +11131,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -11192,7 +11147,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -11208,7 +11163,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -11224,7 +11179,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -11240,7 +11195,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -11256,7 +11211,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -11272,7 +11227,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -11288,7 +11243,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -11304,7 +11259,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -11320,7 +11275,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="41"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -11336,7 +11291,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -11352,7 +11307,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -11368,7 +11323,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="41"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -11384,7 +11339,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="41"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -11400,7 +11355,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="41"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -11416,7 +11371,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="41"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -11432,7 +11387,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="41"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -11448,7 +11403,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="41"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -11464,7 +11419,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -11480,7 +11435,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="41"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -11496,7 +11451,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="41"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -11512,7 +11467,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -11528,7 +11483,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="41"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -11544,7 +11499,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="41"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -11560,7 +11515,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="41"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -11576,7 +11531,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -11592,7 +11547,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -11608,7 +11563,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -11624,7 +11579,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -11640,7 +11595,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -11656,7 +11611,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -11672,7 +11627,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -11688,7 +11643,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -11704,7 +11659,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -11720,7 +11675,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -11736,7 +11691,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -11752,7 +11707,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -11768,7 +11723,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -11784,7 +11739,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -11800,7 +11755,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -11816,7 +11771,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -11832,7 +11787,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -11848,7 +11803,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -11864,7 +11819,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -11880,7 +11835,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -11896,7 +11851,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -11912,7 +11867,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -11928,7 +11883,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -11944,7 +11899,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -11960,7 +11915,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="41"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -11976,7 +11931,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -11992,7 +11947,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="41"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -12008,7 +11963,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="41"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -12024,7 +11979,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -12040,7 +11995,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -12056,7 +12011,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="41"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -12072,7 +12027,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -12088,7 +12043,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="41"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -12104,7 +12059,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -12120,7 +12075,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="41"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -12136,7 +12091,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -12152,7 +12107,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="41"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -12168,7 +12123,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="41"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -12184,7 +12139,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="41"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -12200,7 +12155,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="41"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -12216,7 +12171,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -12232,7 +12187,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="41"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -12248,7 +12203,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="41"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -12264,7 +12219,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="41"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -12280,7 +12235,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -12296,7 +12251,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="42"/>
       <c r="B200" s="15"/>
       <c r="C200" s="43"/>
@@ -12314,23 +12269,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12353,28 +12308,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -12387,7 +12342,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12416,7 +12371,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>66.042000000000002</v>
       </c>
@@ -12444,7 +12399,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0.625</v>
@@ -12459,10 +12414,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>100</v>
       </c>
@@ -12485,10 +12440,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>110.636</v>
+        <v>134.136</v>
       </c>
       <c r="C7" s="38">
         <v>1</v>
@@ -12515,7 +12470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -12541,7 +12496,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -12567,7 +12522,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -12593,7 +12548,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -12619,7 +12574,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -12645,7 +12600,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -12671,7 +12626,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -12697,7 +12652,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -12717,7 +12672,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -12737,7 +12692,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -12757,7 +12712,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -12778,7 +12733,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -12799,7 +12754,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -12820,7 +12775,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -12841,7 +12796,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -12862,7 +12817,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -12883,7 +12838,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -12904,7 +12859,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -12925,7 +12880,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -12946,7 +12901,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -12967,7 +12922,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -12988,7 +12943,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -13009,7 +12964,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -13030,7 +12985,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -13051,7 +13006,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -13072,7 +13027,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -13093,7 +13048,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -13114,7 +13069,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -13135,7 +13090,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -13156,7 +13111,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -13177,7 +13132,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -13186,7 +13141,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -13195,7 +13150,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -13204,7 +13159,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -13213,7 +13168,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -13222,7 +13177,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -13231,7 +13186,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -13240,7 +13195,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -13249,7 +13204,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -13258,7 +13213,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -13267,7 +13222,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -13276,7 +13231,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -13285,7 +13240,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -13294,7 +13249,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -13303,7 +13258,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -13312,7 +13267,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -13321,7 +13276,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -13330,7 +13285,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -13339,7 +13294,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -13348,7 +13303,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -13357,7 +13312,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -13366,7 +13321,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -13375,7 +13330,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -13384,7 +13339,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -13393,7 +13348,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -13402,7 +13357,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -13411,7 +13366,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -13420,7 +13375,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -13429,7 +13384,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -13438,7 +13393,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
